--- a/Report 1/report-50900286-TTCNPM.xlsx
+++ b/Report 1/report-50900286-TTCNPM.xlsx
@@ -569,10 +569,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3140,10 +3140,10 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="10"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -3624,8 +3624,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Report 1/report-50900286-TTCNPM.xlsx
+++ b/Report 1/report-50900286-TTCNPM.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Project</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>huong_dan_su_dung_SUBVERSION.pdf</t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
+  </si>
+  <si>
+    <t>report-50900286-TTCNPM-05-02.pdf</t>
   </si>
 </sst>
 </file>
@@ -3101,14 +3107,14 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="39.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
@@ -3241,7 +3247,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -3304,12 +3310,24 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8">
+        <v>41155</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3575,14 +3593,15 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="http://thuc-tap-cnpm.googlecode.com/svn/trunk/huong_dan_su_dung_SUBVERSION.pdf"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://thuc-tap-cnpm.googlecode.com/svn/trunk/Report 1/report-50900286-TTCNPM-05-02.pdf"/>
   </hyperlinks>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.59410000000000007" bottom="0.49410000000000004" header="0.2" footer="0.1"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId2"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
